--- a/co2_certificate_costs.xlsx
+++ b/co2_certificate_costs.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030095D-47AA-42C0-9843-0F587EED4F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D9B716-F757-4E4D-A757-EDD1EED3B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,9 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -351,7 +365,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,228 +376,353 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12.5</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="B4">
+        <v>2011</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4.5</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="B9">
+        <v>2016</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10">
+        <v>2017</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>90</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f>A28+0.667</f>
+        <v>30.667000000000002</v>
+      </c>
+      <c r="B29">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" ref="A30:A42" si="0">A29+0.667</f>
+        <v>31.334000000000003</v>
+      </c>
+      <c r="B30">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>32.001000000000005</v>
+      </c>
+      <c r="B31">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>32.668000000000006</v>
+      </c>
+      <c r="B32">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>33.335000000000008</v>
+      </c>
+      <c r="B33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>34.00200000000001</v>
+      </c>
+      <c r="B34">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>34.669000000000011</v>
+      </c>
+      <c r="B35">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>35.336000000000013</v>
+      </c>
+      <c r="B36">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>36.003000000000014</v>
+      </c>
+      <c r="B37">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>36.670000000000016</v>
+      </c>
+      <c r="B38">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>37.337000000000018</v>
+      </c>
+      <c r="B39">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>38.004000000000019</v>
+      </c>
+      <c r="B40">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>38.671000000000021</v>
+      </c>
+      <c r="B41">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>39.338000000000022</v>
+      </c>
+      <c r="B42">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
